--- a/data/trans_camb/P2A_enfcro_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 14,11</t>
+          <t>-0,22; 13,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 9,2</t>
+          <t>-5,08; 8,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,62; -4,87</t>
+          <t>-17,82; -5,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 9,97</t>
+          <t>-6,03; 10,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 8,97</t>
+          <t>-6,25; 10,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,99; -7,78</t>
+          <t>-21,38; -7,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 10,73</t>
+          <t>-0,2; 10,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 7,32</t>
+          <t>-3,0; 7,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,35; -8,12</t>
+          <t>-17,34; -8,45</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 35,34</t>
+          <t>-0,72; 34,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 22,84</t>
+          <t>-10,92; 20,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,94; -12,08</t>
+          <t>-38,37; -13,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 22,24</t>
+          <t>-11,73; 24,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 20,16</t>
+          <t>-12,09; 22,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,73; -16,75</t>
+          <t>-40,52; -17,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 25,6</t>
+          <t>-0,26; 24,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 17,09</t>
+          <t>-6,34; 16,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,25; -19,01</t>
+          <t>-35,31; -19,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 15,03</t>
+          <t>-0,24; 14,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 10,83</t>
+          <t>-4,33; 10,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,21; -4,59</t>
+          <t>-18,97; -4,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 16,28</t>
+          <t>0,62; 16,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 4,73</t>
+          <t>-10,26; 4,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,58; -15,93</t>
+          <t>-28,87; -15,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 13,25</t>
+          <t>2,65; 13,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 5,68</t>
+          <t>-5,15; 4,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -12,17</t>
+          <t>-21,79; -12,6</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 37,32</t>
+          <t>-0,51; 36,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 27,01</t>
+          <t>-9,17; 26,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,95; -11,59</t>
+          <t>-39,75; -12,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 33,86</t>
+          <t>0,89; 32,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 9,19</t>
+          <t>-18,69; 9,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,2; -32,86</t>
+          <t>-51,04; -32,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 28,56</t>
+          <t>5,31; 28,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 12,6</t>
+          <t>-9,96; 10,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,7; -26,51</t>
+          <t>-42,58; -27,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 17,81</t>
+          <t>6,05; 18,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 16,66</t>
+          <t>4,14; 16,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-37,8; -10,87</t>
+          <t>-40,2; -11,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,31; 23,22</t>
+          <t>4,09; 23,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 20,36</t>
+          <t>0,08; 20,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -1,59</t>
+          <t>-20,67; -1,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 18,14</t>
+          <t>7,95; 18,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 16,12</t>
+          <t>5,0; 16,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-39,73; -10,77</t>
+          <t>-39,53; -10,77</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,79; 42,59</t>
+          <t>12,92; 44,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,8; 39,73</t>
+          <t>8,57; 39,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,92; -25,22</t>
+          <t>-84,17; -26,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 46,59</t>
+          <t>6,97; 47,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 40,89</t>
+          <t>0,41; 40,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,33; -2,89</t>
+          <t>-33,59; -2,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,21; 40,77</t>
+          <t>15,83; 40,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,35; 36,06</t>
+          <t>10,0; 36,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,08; -22,94</t>
+          <t>-78,85; -22,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 12,73</t>
+          <t>4,47; 12,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 8,4</t>
+          <t>0,49; 8,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,54; -7,07</t>
+          <t>-15,75; -7,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,71</t>
+          <t>-1,45; 9,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,3; -1,17</t>
+          <t>-10,89; -0,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 15,31</t>
+          <t>-24,32; 15,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,96</t>
+          <t>3,47; 9,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,89</t>
+          <t>-2,88; 3,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 9,7</t>
+          <t>-16,42; 6,47</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,77; 27,31</t>
+          <t>8,72; 26,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,9; 18,23</t>
+          <t>0,97; 18,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,21; -15,34</t>
+          <t>-31,46; -15,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 15,41</t>
+          <t>-2,32; 16,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -2,06</t>
+          <t>-17,71; -1,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 27,35</t>
+          <t>-40,13; 26,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,94; 19,42</t>
+          <t>6,25; 19,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 7,69</t>
+          <t>-5,18; 7,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 20,71</t>
+          <t>-31,02; 12,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 14,44</t>
+          <t>1,36; 14,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 11,13</t>
+          <t>-1,97; 11,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -3,58</t>
+          <t>-17,26; -3,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,21; 18,12</t>
+          <t>7,25; 18,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,87; 14,43</t>
+          <t>3,59; 14,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,95; -10,95</t>
+          <t>-30,11; -11,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,6; 15,43</t>
+          <t>6,15; 14,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 10,54</t>
+          <t>1,67; 10,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-22,39; -9,93</t>
+          <t>-22,79; -9,88</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,41; 32,86</t>
+          <t>2,61; 33,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 25,07</t>
+          <t>-3,81; 25,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,84; -8,01</t>
+          <t>-33,16; -8,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,27; 31,54</t>
+          <t>11,42; 31,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,96; 25,17</t>
+          <t>5,66; 25,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-48,29; -18,77</t>
+          <t>-49,12; -19,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,18; 29,04</t>
+          <t>10,41; 27,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,29; 20,07</t>
+          <t>2,82; 19,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,16; -18,68</t>
+          <t>-39,33; -18,43</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,31; 21,05</t>
+          <t>5,9; 20,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,69; 14,99</t>
+          <t>1,86; 15,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 13,32</t>
+          <t>-7,81; 12,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,79; 9,7</t>
+          <t>2,4; 10,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 4,88</t>
+          <t>-3,09; 4,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-26,24; -17,61</t>
+          <t>-26,14; -17,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,98; 10,72</t>
+          <t>3,76; 11,21</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,7</t>
+          <t>-1,63; 5,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-22,53; -14,15</t>
+          <t>-22,14; -13,91</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>19,39; 103,19</t>
+          <t>21,99; 107,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,14; 72,74</t>
+          <t>5,9; 76,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 65,5</t>
+          <t>-32,02; 58,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,55; 14,85</t>
+          <t>3,49; 15,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 7,57</t>
+          <t>-4,47; 7,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-38,62; -27,12</t>
+          <t>-38,33; -26,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>6,66; 18,92</t>
+          <t>6,27; 19,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 10,06</t>
+          <t>-2,68; 9,86</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-37,89; -24,7</t>
+          <t>-37,19; -24,73</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,97</t>
+          <t>7,1; 11,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,82</t>
+          <t>3,1; 8,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-20,51; -9,34</t>
+          <t>-19,46; -9,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,49</t>
+          <t>4,9; 9,5</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,18</t>
+          <t>-1,62; 3,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-22,29; -6,54</t>
+          <t>-22,14; -6,22</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,6; 9,9</t>
+          <t>6,48; 9,95</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,89</t>
+          <t>1,28; 4,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-18,98; -8,63</t>
+          <t>-19,16; -9,53</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>15,95; 27,81</t>
+          <t>15,59; 27,74</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>6,44; 17,99</t>
+          <t>6,83; 18,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-46,51; -21,55</t>
+          <t>-42,9; -21,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,08</t>
+          <t>7,93; 16,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,36</t>
+          <t>-2,61; 5,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-36,58; -10,57</t>
+          <t>-36,34; -10,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>12,34; 19,13</t>
+          <t>12,11; 19,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,39; 9,4</t>
+          <t>2,4; 9,08</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-35,69; -16,45</t>
+          <t>-36,3; -18,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_enfcro_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
